--- a/biology/Botanique/Géranium_des_bois/Géranium_des_bois.xlsx
+++ b/biology/Botanique/Géranium_des_bois/Géranium_des_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_des_bois</t>
+          <t>Géranium_des_bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geranium sylvaticum
 Le Géranium des bois (Geranium sylvaticum) est une plante herbacée vivace de la famille des Géraniacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_des_bois</t>
+          <t>Géranium_des_bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa hauteur atteint 30 à 70 cm. Les fleurs sont pourpre violacé, à cinq pétales, et mesurent de 2 à 3 cm de diamètre. Les feuilles sont très découpées, mais pas autant que celles du Géranium des prés, avec lequel on peut le confondre facilement.
 C'est une plante gynodioïque, ce qui est rare chez les angiospermes puisque moins d'1% des espèces sont concernées par ce système de reproduction.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_des_bois</t>
+          <t>Géranium_des_bois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fleurs de ce géranium sont visitées par de nombreux insectes et, comme le Géranium Herbe à Robert, il est particulièrement apprécié par certaines espèces d'Empidinae qui le pollinisent aussi efficacement que les abeilles[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs de ce géranium sont visitées par de nombreux insectes et, comme le Géranium Herbe à Robert, il est particulièrement apprécié par certaines espèces d'Empidinae qui le pollinisent aussi efficacement que les abeilles.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_des_bois</t>
+          <t>Géranium_des_bois</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Géranium des bois est une plante de montagne caractéristique des mégaphorbiaies boréomontagnardes. Il pousse de préférence sur les sols siliceux, dans les bois clairs, les lisières et les prés. On le trouve en France dans tous les massifs montagneux (au-dessus de 1 000 m à 1 200 m dans le Massif central et les Pyrénées, plus bas dans les massifs plus au nord).
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_des_bois</t>
+          <t>Géranium_des_bois</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Variabilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le géranium des bois présente une grande variabilité suivant la couleur des fleurs et la présence plus ou moins importante des poils.
 Geranium sylvaticum L. forma albiflorum Murr
